--- a/Funding-Summary.xlsx
+++ b/Funding-Summary.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bcpierce/home19/money/2023-pbt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bcpierce/home1/money/2023-pbt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA426B55-7519-1B42-83AC-DEDA36058321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FA1CB6-73F3-4246-874E-141A28E293D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-160" yWindow="500" windowWidth="36000" windowHeight="21100" xr2:uid="{BE11AE35-4DBA-DC42-8084-9270229E3E58}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="36000" windowHeight="21100" xr2:uid="{BE11AE35-4DBA-DC42-8084-9270229E3E58}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
